--- a/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\daten2\institut\epi\Projekte und Studien\NFDI4Health\Datenharmonisierung\Dokumente per Studie\DONALD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="253">
   <si>
     <t>index</t>
   </si>
@@ -741,9 +741,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>EDU_LEVEL_P</t>
-  </si>
-  <si>
     <t>EMPLOY_P</t>
   </si>
   <si>
@@ -778,6 +775,9 @@
   </si>
   <si>
     <t>Sodium to potassium intake ratio</t>
+  </si>
+  <si>
+    <t>m_schulab, v_schulab, m_berufsab, v_schulab</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1311,16 +1311,13 @@
         <v>238</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>39</v>
@@ -1346,21 +1343,21 @@
         <v>238</v>
       </c>
       <c r="F6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>241</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1393,35 +1390,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="H8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1454,38 +1451,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1805,7 +1802,7 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1837,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1869,7 +1866,7 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -3218,7 +3215,7 @@
         <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J69" t="s">
         <v>25</v>
@@ -4035,7 +4032,7 @@
         <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -4067,7 +4064,7 @@
         <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -4219,35 +4216,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3">
+    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="D101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6018A-3A9D-4BFF-AE2E-2105C7D9D7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="257">
   <si>
     <t>index</t>
   </si>
@@ -93,9 +94,6 @@
     <t>EDU_LEVEL</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
@@ -777,14 +775,36 @@
     <t>Sodium to potassium intake ratio</t>
   </si>
   <si>
-    <t>m_schulab, v_schulab, m_berufsab, v_schulab</t>
+    <t>m_schulab;v_schulab;m_berufab;v_berufab;</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>case_when(
+  m_berufab == 5 | v_berufab == 5 ~ 7,
+  m_berufab %in% c(3, 4) | v_berufab %in% c(3, 4) ~ 6,
+  m_berufab %in% c(1, 2) | v_berufab %in% c(1, 2) ~ 5,
+  m_schulab %in% c(3, 4) | v_schulab %in% c(3, 4) ~ 3,
+  m_schulab %in% c(1, 2) | v_schulab %in% c(1, 2) ~ 2,
+  TRUE ~ NA_real_
+  )</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +833,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -834,16 +860,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -899,9 +932,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,7 +969,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,7 +1004,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1144,26 +1177,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="59.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="19.36328125" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1212,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1230,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1244,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
         <v>238</v>
-      </c>
-      <c r="F3" t="s">
-        <v>239</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1262,7 +1295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1276,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1294,181 +1327,184 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>240</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>241</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
@@ -1477,1640 +1513,1640 @@
         <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
-        <v>244</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
-        <v>245</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
         <v>33</v>
       </c>
-      <c r="H22" t="s">
-        <v>246</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>247</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
         <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
         <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>98</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
         <v>103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
         <v>105</v>
       </c>
-      <c r="C43" t="s">
-        <v>106</v>
-      </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
         <v>109</v>
       </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
       <c r="D45" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" t="s">
-        <v>112</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
         <v>113</v>
       </c>
-      <c r="C47" t="s">
-        <v>114</v>
-      </c>
       <c r="D47" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
         <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
         <v>117</v>
       </c>
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
         <v>121</v>
       </c>
-      <c r="C51" t="s">
-        <v>122</v>
-      </c>
       <c r="D51" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
         <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>124</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
         <v>125</v>
       </c>
-      <c r="C53" t="s">
-        <v>126</v>
-      </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
         <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
         <v>129</v>
       </c>
-      <c r="C55" t="s">
-        <v>130</v>
-      </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
         <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
         <v>133</v>
       </c>
-      <c r="C57" t="s">
-        <v>134</v>
-      </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
         <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>136</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
         <v>137</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>138</v>
       </c>
-      <c r="D59" t="s">
-        <v>139</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
         <v>140</v>
       </c>
-      <c r="C60" t="s">
-        <v>141</v>
-      </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
         <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>143</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
         <v>144</v>
       </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
         <v>146</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
         <v>148</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
         <v>150</v>
       </c>
-      <c r="C65" t="s">
-        <v>151</v>
-      </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
         <v>152</v>
       </c>
-      <c r="C66" t="s">
-        <v>153</v>
-      </c>
       <c r="D66" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -3125,24 +3161,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
         <v>154</v>
       </c>
-      <c r="C67" t="s">
-        <v>155</v>
-      </c>
       <c r="D67" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3157,24 +3193,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s">
         <v>156</v>
       </c>
-      <c r="C68" t="s">
-        <v>157</v>
-      </c>
       <c r="D68" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -3189,59 +3225,59 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="C69" t="s">
-        <v>159</v>
-      </c>
       <c r="D69" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="C70" t="s">
-        <v>161</v>
-      </c>
       <c r="D70" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -3256,24 +3292,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
         <v>162</v>
       </c>
-      <c r="C71" t="s">
-        <v>163</v>
-      </c>
       <c r="D71" t="s">
         <v>22</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3288,24 +3324,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
         <v>164</v>
       </c>
-      <c r="C72" t="s">
-        <v>165</v>
-      </c>
       <c r="D72" t="s">
         <v>22</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
@@ -3320,24 +3356,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
         <v>166</v>
       </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
       <c r="D73" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G73" t="s">
         <v>19</v>
@@ -3352,24 +3388,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="s">
         <v>168</v>
       </c>
-      <c r="C74" t="s">
-        <v>169</v>
-      </c>
       <c r="D74" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -3384,24 +3420,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" t="s">
         <v>170</v>
       </c>
-      <c r="C75" t="s">
-        <v>171</v>
-      </c>
       <c r="D75" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3416,24 +3452,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
         <v>172</v>
       </c>
-      <c r="C76" t="s">
-        <v>173</v>
-      </c>
       <c r="D76" t="s">
         <v>22</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G76" t="s">
         <v>19</v>
@@ -3448,24 +3484,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
         <v>174</v>
       </c>
-      <c r="C77" t="s">
-        <v>175</v>
-      </c>
       <c r="D77" t="s">
         <v>22</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
         <v>19</v>
@@ -3480,24 +3516,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
         <v>176</v>
       </c>
-      <c r="C78" t="s">
-        <v>177</v>
-      </c>
       <c r="D78" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
         <v>19</v>
@@ -3512,24 +3548,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" t="s">
         <v>178</v>
       </c>
-      <c r="C79" t="s">
-        <v>179</v>
-      </c>
       <c r="D79" t="s">
         <v>22</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3544,24 +3580,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
         <v>180</v>
       </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
       <c r="D80" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -3576,24 +3612,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
         <v>182</v>
       </c>
-      <c r="C81" t="s">
-        <v>183</v>
-      </c>
       <c r="D81" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -3608,24 +3644,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
         <v>184</v>
       </c>
-      <c r="C82" t="s">
-        <v>185</v>
-      </c>
       <c r="D82" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G82" t="s">
         <v>19</v>
@@ -3640,24 +3676,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" t="s">
         <v>186</v>
       </c>
-      <c r="C83" t="s">
-        <v>187</v>
-      </c>
       <c r="D83" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3672,24 +3708,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
         <v>188</v>
       </c>
-      <c r="C84" t="s">
-        <v>189</v>
-      </c>
       <c r="D84" t="s">
         <v>22</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
@@ -3704,24 +3740,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
         <v>190</v>
       </c>
-      <c r="C85" t="s">
-        <v>191</v>
-      </c>
       <c r="D85" t="s">
         <v>22</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
@@ -3736,24 +3772,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>193</v>
-      </c>
       <c r="D86" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G86" t="s">
         <v>19</v>
@@ -3768,24 +3804,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" t="s">
-        <v>195</v>
-      </c>
       <c r="D87" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3800,24 +3836,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" t="s">
         <v>196</v>
       </c>
-      <c r="C88" t="s">
-        <v>197</v>
-      </c>
       <c r="D88" t="s">
         <v>22</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
@@ -3832,24 +3868,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
         <v>198</v>
       </c>
-      <c r="C89" t="s">
-        <v>199</v>
-      </c>
       <c r="D89" t="s">
         <v>22</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -3864,24 +3900,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" t="s">
         <v>200</v>
       </c>
-      <c r="C90" t="s">
-        <v>201</v>
-      </c>
       <c r="D90" t="s">
         <v>22</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -3896,24 +3932,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
         <v>202</v>
       </c>
-      <c r="C91" t="s">
-        <v>203</v>
-      </c>
       <c r="D91" t="s">
         <v>22</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -3928,24 +3964,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
         <v>204</v>
       </c>
-      <c r="C92" t="s">
-        <v>205</v>
-      </c>
       <c r="D92" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G92" t="s">
         <v>19</v>
@@ -3960,24 +3996,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
         <v>206</v>
       </c>
-      <c r="C93" t="s">
-        <v>207</v>
-      </c>
       <c r="D93" t="s">
         <v>22</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
@@ -3992,24 +4028,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
         <v>208</v>
       </c>
-      <c r="C94" t="s">
-        <v>209</v>
-      </c>
       <c r="D94" t="s">
         <v>22</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -4024,24 +4060,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4056,24 +4092,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -4088,24 +4124,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="D97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>19</v>
@@ -4120,24 +4156,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="D98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>19</v>
@@ -4152,24 +4188,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="D99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>19</v>
@@ -4184,24 +4220,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>19</v>
@@ -4216,24 +4252,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>19</v>
@@ -4242,30 +4278,30 @@
         <v>19</v>
       </c>
       <c r="J101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>19</v>
@@ -4280,24 +4316,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>19</v>
@@ -4312,24 +4348,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>19</v>
@@ -4344,24 +4380,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>19</v>
@@ -4376,24 +4412,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="D106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>19</v>
@@ -4408,24 +4444,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>19</v>
@@ -4440,24 +4476,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D108" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>19</v>
@@ -4472,27 +4508,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="3">
+    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
+      <c r="E109" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C6018A-3A9D-4BFF-AE2E-2105C7D9D7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E18B9-BE80-49AB-8026-0F4F15552B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,23 +781,24 @@
     <t>case_when</t>
   </si>
   <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
+  </si>
+  <si>
     <t>case_when(
   m_berufab == 5 | v_berufab == 5 ~ 7,
   m_berufab %in% c(3, 4) | v_berufab %in% c(3, 4) ~ 6,
-  m_berufab %in% c(1, 2) | v_berufab %in% c(1, 2) ~ 5,
+  m_berufab %in% c(1, 2) | v_berufab %in% c(1, 2) ~ 4,
   m_schulab %in% c(3, 4) | v_schulab %in% c(3, 4) ~ 3,
   m_schulab %in% c(1, 2) | v_schulab %in% c(1, 2) ~ 2,
+  m_schulab == 5 | v_schulab == 5 | m_berufab %in% c(6, 7, 8)| v_berufab %in% c(6, 7, 8) ~ 9,
   TRUE ~ NA_real_
-  )</t>
-  </si>
-  <si>
-    <t>__BLANK__</t>
-  </si>
-  <si>
-    <t>paste</t>
-  </si>
-  <si>
-    <t>Highest level of education [ISCED 2011]</t>
+)</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -1350,7 +1351,7 @@
         <v>252</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>240</v>
@@ -4153,7 +4154,7 @@
         <v>15</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4185,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4217,7 +4218,7 @@
         <v>15</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4249,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4313,7 +4314,7 @@
         <v>15</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4346,7 @@
         <v>15</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4377,7 +4378,7 @@
         <v>15</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4409,7 +4410,7 @@
         <v>15</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4441,7 +4442,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4473,7 +4474,7 @@
         <v>15</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4505,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4525,13 +4526,13 @@
         <v>237</v>
       </c>
       <c r="F109" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H109" s="3">
-        <v>1</v>
+      <c r="H109" s="2">
+        <v>3</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="2" t="s">

--- a/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E18B9-BE80-49AB-8026-0F4F15552B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC368034-EE2A-4627-84FB-F165903E9352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="259">
   <si>
     <t>index</t>
   </si>
@@ -799,6 +799,12 @@
   m_schulab == 5 | v_schulab == 5 | m_berufab %in% c(6, 7, 8)| v_berufab %in% c(6, 7, 8) ~ 9,
   TRUE ~ NA_real_
 )</t>
+  </si>
+  <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>recode(1=3;0=1;)</t>
   </si>
 </sst>
 </file>
@@ -877,7 +883,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -893,9 +899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -933,9 +939,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,9 +974,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,9 +1026,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1181,11 +1221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="59.140625" customWidth="1"/>
@@ -1507,11 +1547,11 @@
       <c r="F10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
+      <c r="G10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" t="s">
+        <v>258</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>241</v>

--- a/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC368034-EE2A-4627-84FB-F165903E9352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C22C3-DBD6-4FF1-9340-785019E3803E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -883,7 +883,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1221,17 +1221,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="59.140625" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
